--- a/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B18D17-BBDA-5143-8850-CBAA35A455A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D89641-3735-0046-9512-854C3084C910}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="9240" windowWidth="29640" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18900" yWindow="6760" windowWidth="29820" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,130 +20,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+  <si>
+    <t>带有强力攻击技能</t>
+  </si>
+  <si>
+    <t>##var</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>##type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试说明</t>
+  </si>
+  <si>
+    <t>测试说明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试说明2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>米克尔2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>米克尔3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>米克尔4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有强力攻击技能2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有强力攻击技能3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有强力攻击技能4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int&amp;group=c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int&amp;group=s</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>##Desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitConfig.Name.1001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitConfig.Name.1002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitConfig.Name.1003</t>
+  </si>
+  <si>
+    <t>UnitConfig.Name.1004</t>
+  </si>
   <si>
     <t>米克尔</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能</t>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>##type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>体重</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试说明</t>
-  </si>
-  <si>
-    <t>测试说明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试说明2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>米克尔2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>米克尔3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>米克尔4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>带有强力攻击技能2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>带有强力攻击技能3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>带有强力攻击技能4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int&amp;group=c</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int&amp;group=s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>##Desc</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,6 +262,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -558,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -569,98 +586,102 @@
     <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
     <col min="2" max="3" width="12.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
+    <row r="1" spans="1:10" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="9"/>
       <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1">
+    <row r="3" spans="1:10" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:10" ht="15">
       <c r="B4" s="1">
         <v>1001</v>
       </c>
@@ -668,25 +689,28 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>178</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:10" ht="15">
       <c r="B5" s="1">
         <v>1002</v>
       </c>
@@ -694,28 +718,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="6">
         <v>2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>278</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="15">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15">
       <c r="B6" s="1">
         <v>1003</v>
       </c>
@@ -723,28 +747,29 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>178</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
-      <c r="A7" s="6" t="s">
-        <v>28</v>
-      </c>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="6"/>
       <c r="B7" s="1">
         <v>1004</v>
       </c>
@@ -752,25 +777,33 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="6">
+        <v>33</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="6">
         <v>2</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>278</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>78</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
